--- a/Sprint1/Burndown Chart.xlsx
+++ b/Sprint1/Burndown Chart.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="118">
   <si>
     <t>This chart is dedicated to the sprint planning</t>
   </si>
@@ -80,6 +80,9 @@
 functional requirement</t>
   </si>
   <si>
+    <t>Benjamin Ho, Ikram Kamal</t>
+  </si>
+  <si>
     <t>Sprint 2</t>
   </si>
   <si>
@@ -110,10 +113,13 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t>- This is also imperative since it 
+      <t>- This is imperative since it 
 is necessary for the product we are
 renting on our platform, and alot of 
-details are involved for a vehicle</t>
+details are involved for a vehicle so we need 
+adequate time to work on this, we would also 
+need to integrate both front endand backend 
+for this task.</t>
     </r>
   </si>
   <si>
@@ -121,7 +127,7 @@
 functional requirement</t>
   </si>
   <si>
-    <t xml:space="preserve">Uyi Oronsaye, </t>
+    <t>Uyi Oronsaye, Ikram Kamal</t>
   </si>
   <si>
     <t>#28</t>
@@ -157,6 +163,9 @@
     </r>
   </si>
   <si>
+    <t>Samuel Henderson, Ikram Kamal</t>
+  </si>
+  <si>
     <t>#18</t>
   </si>
   <si>
@@ -164,17 +173,21 @@
 catalog from homepage</t>
   </si>
   <si>
-    <t>-Create a "Catalog" link on the navigation bar #18</t>
-  </si>
-  <si>
-    <t>1- Provides good UX, and increases
-ease of access.</t>
+    <t xml:space="preserve">-Create a "Catalog" link on the navigation bar #73
+</t>
+  </si>
+  <si>
+    <t>1- Provides good UX, and increases intuitiveness,
+and ease of access.</t>
   </si>
   <si>
     <t>Low</t>
   </si>
   <si>
-    <t>#39</t>
+    <t>Ikram Kamal</t>
+  </si>
+  <si>
+    <t>#19</t>
   </si>
   <si>
     <t>As a client, I want to view the vehicle catalog</t>
@@ -183,13 +196,18 @@
     <t>-Design UI for catalog</t>
   </si>
   <si>
-    <t>3-</t>
+    <t>3- Implement a good UI. Necessary feature to visualize the available vehicles</t>
   </si>
   <si>
     <t>Low Risk- This is a low risk, Low value
 Not explicitly mentioned in our  FRs</t>
   </si>
   <si>
+    <t xml:space="preserve">
+Hanine Tydrini 
+</t>
+  </si>
+  <si>
     <t>#80</t>
   </si>
   <si>
@@ -204,24 +222,14 @@
     <t>Low Risk- Low Risk, low value</t>
   </si>
   <si>
-    <t>#23</t>
-  </si>
-  <si>
-    <t>Create a reservation form for the user</t>
-  </si>
-  <si>
-    <t>-Create UI for user reservation form
--Handle user input validation and form submission</t>
-  </si>
-  <si>
-    <t>High Risk</t>
+    <t>Hanine Tydrini</t>
   </si>
   <si>
     <t>#12</t>
   </si>
   <si>
-    <t xml:space="preserve">As a customer, I want to be able to view my reservation 
-so that I can review it's details </t>
+    <t>As a customer, I want to be able to view my reservation 
+so that I can edit user account details</t>
   </si>
   <si>
     <t>- Design UI for a "My Reservations page" page #84
@@ -229,10 +237,16 @@
 - Test functionality of search up</t>
   </si>
   <si>
+    <t>3- Being able to dynamically edit reservation details is imperative</t>
+  </si>
+  <si>
     <t>Medium</t>
   </si>
   <si>
     <t>High RIsk</t>
+  </si>
+  <si>
+    <t>Hanine Tydrini,  Yasmine Mouatif</t>
   </si>
   <si>
     <t>#78</t>
@@ -244,6 +258,9 @@
   <si>
     <t>-Design Ui for removing/modifying a user #103
 -Backend functionality to delete a user #79</t>
+  </si>
+  <si>
+    <t>2 - This is imperative since it is a necessary feature to manage users. Research needed to properly implement API endpoint.</t>
   </si>
   <si>
     <t>#77</t>
@@ -258,6 +275,9 @@
 </t>
   </si>
   <si>
+    <t>3 - This is imperative since it is a necessary feature to manage users. Research needed to properly implement API endpoint.</t>
+  </si>
+  <si>
     <t>#69</t>
   </si>
   <si>
@@ -267,6 +287,12 @@
   <si>
     <t>-Design UI for Delete Reservation Confirmation Popup #89
 -Delete reservation from database #90</t>
+  </si>
+  <si>
+    <t>3- It's imperative to the overall flexibility of our plateform in accomodating users.</t>
+  </si>
+  <si>
+    <t>Yasmine Mouatif</t>
   </si>
   <si>
     <t>#57</t>
@@ -284,7 +310,24 @@
 </t>
   </si>
   <si>
-    <t>Uyi Oronsaye</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>- This is imperative for the success of our 
+application as it is one of the core features.
+we would also need to integrate both front end
+and backend for this task.</t>
+    </r>
   </si>
   <si>
     <t>#56</t>
@@ -298,6 +341,26 @@
     <t>-BackEnd Functionality to update vehicle details #63
 -Create a UI for viewing, and modelling process #35
 -Implement validation logic for updated vehicle details #64</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>- This is imperative for the success of our 
+application as it is one of the core features.
+we would also need to integrate both front end
+and backend for this task.</t>
+    </r>
   </si>
   <si>
     <t>#55</t>
@@ -314,6 +377,25 @@
 </t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">- This is imperative for the success of our 
+application as it is one of the core features.
+</t>
+    </r>
+  </si>
+  <si>
     <t>#53</t>
   </si>
   <si>
@@ -335,6 +417,9 @@
     <t xml:space="preserve">-Design UI for viewing users #44
 -Backend functionality to read the details of users #54
  </t>
+  </si>
+  <si>
+    <t>3- This is imperative since it is a necessary feature to manage users. Research needed to properly implement API endpoint.</t>
   </si>
   <si>
     <t>#32</t>
@@ -351,6 +436,12 @@
  list.</t>
   </si>
   <si>
+    <t>3 - This is imperative since it is a
+necessary feature for our users. 
+ease of use. Research needed to properly 
+develop backend API endpoint</t>
+  </si>
+  <si>
     <t>#31</t>
   </si>
   <si>
@@ -377,22 +468,10 @@
 -Add scrolling feature to handle large lists of reservations.</t>
   </si>
   <si>
-    <t>Hanine Tydrini</t>
-  </si>
-  <si>
-    <t>Ikram Kamal</t>
-  </si>
-  <si>
-    <t>Benjamin Ho</t>
-  </si>
-  <si>
-    <t>Samuel Henderson</t>
-  </si>
-  <si>
     <t>#27</t>
   </si>
   <si>
-    <t>Provide the user with a reservation summary and confirmation</t>
+    <t>As a customer, I want to see a reservation summary and confirmation of my booking</t>
   </si>
   <si>
     <t xml:space="preserve">-Set up the UI to display a reservation confirmation for the user 
@@ -401,10 +480,13 @@
 </t>
   </si>
   <si>
+    <t>3- Creating and modifying reservations is the most difficult part. Once the reservation system is already developped, displaying the information to the user will only consist of a fetch operation from the database, and the corresponding UI design.</t>
+  </si>
+  <si>
     <t>#26</t>
   </si>
   <si>
-    <t>Allow user the option to add extra equipment</t>
+    <t>As a customer, I want to have the option to add extra equipment</t>
   </si>
   <si>
     <t xml:space="preserve">-Set up UI Set up UI to allow user to add extra equipment to his 
@@ -414,11 +496,16 @@
 </t>
   </si>
   <si>
+    <t>3- It's imperative to be able to add extra equipment, but also to calculate the relating change of cost for the reservation dynamically.</t>
+  </si>
+  <si>
+    <t>Hanine Tydrini,</t>
+  </si>
+  <si>
     <t>#24</t>
   </si>
   <si>
-    <t>Fetch available vehicles that correspond to the criteria given 
-by the user</t>
+    <t xml:space="preserve">As a customer, I want to see available fetch vehicles that correspond to the criteria I gave in my reservation form </t>
   </si>
   <si>
     <t xml:space="preserve">-Fetch corresponding vehicles from database #93
@@ -426,12 +513,33 @@
 </t>
   </si>
   <si>
+    <t>4- Implementing good UI + fetching the corresponding data from the catalog of vehicles in the database, while applying the propefr filters correspondoing to the user's criteria</t>
+  </si>
+  <si>
+    <t>Hanine Tydrini, Yasmine Mouatif</t>
+  </si>
+  <si>
+    <t>#23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a customer, I want to be able to fill a reservation form for my booking </t>
+  </si>
+  <si>
     <t xml:space="preserve">-Create UI for user reservation form #91
 -Handle user input validation and form submission #92
 </t>
   </si>
   <si>
+    <t xml:space="preserve">2 Implementing good UI is imperative, first impression of the user on our website. </t>
+  </si>
+  <si>
+    <t>yasmine Mouatif</t>
+  </si>
+  <si>
     <t>#20</t>
+  </si>
+  <si>
+    <t>As a client, I want to be able to sort vehicles on the catalog page</t>
   </si>
   <si>
     <t xml:space="preserve">-Create "Sort" button on Catalog page to sort vehicles based on 
@@ -439,22 +547,14 @@
 </t>
   </si>
   <si>
-    <t>Yasmine Mouatif</t>
-  </si>
-  <si>
-    <t>As a client, I want to be able to access the vehicle catalog 
-from homepage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-Create a "Catalog" link on the navigation bar #73
-</t>
+    <t>2- 3- Implement a good UI. Necessary feature to sort the available vehicles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -483,12 +583,16 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="10.0"/>
       <color rgb="FF24292F"/>
-      <name val="-apple-system"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,14 +607,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -534,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -550,14 +660,25 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -808,10 +929,11 @@
     <col customWidth="1" min="1" max="1" width="10.25"/>
     <col customWidth="1" min="2" max="2" width="46.75"/>
     <col customWidth="1" min="3" max="3" width="51.88"/>
-    <col customWidth="1" min="4" max="4" width="33.25"/>
+    <col customWidth="1" min="4" max="4" width="36.63"/>
     <col customWidth="1" min="5" max="5" width="7.63"/>
     <col customWidth="1" min="6" max="6" width="29.25"/>
-    <col customWidth="1" min="7" max="7" width="18.25"/>
+    <col customWidth="1" min="7" max="7" width="27.13"/>
+    <col customWidth="1" min="13" max="13" width="14.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -875,631 +997,610 @@
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" ht="70.5" customHeight="1">
+      <c r="H5" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" ht="78.0" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="E6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>16</v>
+      <c r="G6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="5" t="s">
-        <v>16</v>
+      <c r="D7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5" t="s">
-        <v>16</v>
+      <c r="D8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" ht="46.5" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="5" t="s">
-        <v>16</v>
+      <c r="C9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" ht="26.25" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="5" t="s">
+      <c r="E10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" ht="56.25" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="5" t="s">
+      <c r="H12" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" ht="56.25" customHeight="1">
-      <c r="A12" s="5" t="s">
+      <c r="H13" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" ht="32.25" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" ht="51.0" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" ht="50.25" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" ht="50.25" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" ht="34.5" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="5" t="s">
+      <c r="H18" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" ht="39.0" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" ht="33.75" customHeight="1">
-      <c r="A13" s="5" t="s">
+      <c r="H19" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" ht="66.75" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" ht="53.25" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" ht="60.75" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" ht="51.75" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" ht="34.5" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="F23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" ht="32.25" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="G23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" ht="51.0" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" ht="51.0" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="G24" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" ht="36.0" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" ht="39.75" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="G25" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" ht="52.5" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" ht="50.25" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="5" t="s">
+      <c r="G26" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" ht="30.0" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" ht="34.5" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" ht="39.0" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" ht="66.75" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" ht="53.25" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" ht="60.75" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" ht="51.75" customHeight="1">
-      <c r="A24" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" ht="51.0" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" ht="36.0" customHeight="1">
-      <c r="A26" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" ht="52.5" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" ht="30.0" customHeight="1">
-      <c r="A28" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" ht="28.5" customHeight="1">
-      <c r="A29" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" ht="30.0" customHeight="1"/>
-    <row r="31" ht="17.25" customHeight="1">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="G27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" ht="30.0" customHeight="1"/>
+    <row r="29" ht="17.25" customHeight="1">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="H29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
